--- a/register_printer/excels/block.xlsx
+++ b/register_printer/excels/block.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\RegisterPrinter\register_printer\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADA0C83-A6F8-4AF7-B36F-FB369D64919A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E59B837-0975-4C39-89E1-BB6DDFC429AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="48810" windowHeight="18810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10020" yWindow="2895" windowWidth="36435" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Module Description</t>
   </si>
@@ -92,6 +92,42 @@
   </si>
   <si>
     <t>Register Description</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>filed0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,8 +183,28 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,8 +240,18 @@
         <bgColor rgb="FFDDEBF7"/>
       </patternFill>
     </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="9" tint="0.59999389629810485"/>
+        </stop>
+        <stop position="1">
+          <color theme="7" tint="0.80001220740379042"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -321,11 +387,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -374,6 +451,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -667,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C10" sqref="C10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -691,16 +798,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -723,10 +830,10 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -779,9 +886,9 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -789,10 +896,10 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -847,16 +954,24 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="13"/>
+      <c r="J9" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
@@ -864,32 +979,141 @@
     <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="21">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="21">
+        <v>1</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/register_printer/excels/block.xlsx
+++ b/register_printer/excels/block.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\RegisterPrinter\register_printer\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\register_print\workspace\RegisterPrinter\register_printer\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E59B837-0975-4C39-89E1-BB6DDFC429AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6069DA7-6BA2-4499-A681-DCF96CEDE90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="2895" windowWidth="36435" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Module Description</t>
   </si>
@@ -128,6 +128,10 @@
   </si>
   <si>
     <t>0x1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +255,7 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -398,11 +402,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -492,6 +570,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -777,7 +873,8 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:J10"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -786,15 +883,15 @@
     <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.625" customWidth="1"/>
-    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.625" customWidth="1"/>
-    <col min="11" max="11" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.25" customWidth="1"/>
-    <col min="13" max="13" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
@@ -862,9 +959,11 @@
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
@@ -874,9 +973,9 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
@@ -895,7 +994,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
         <v>20</v>
       </c>
@@ -1116,12 +1215,15 @@
       <c r="M14" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="A8:M8" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="7">
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/register_printer/excels/block.xlsx
+++ b/register_printer/excels/block.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\register_print\workspace\RegisterPrinter\register_printer\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\workspace\registerprinter\RegisterPrinter\register_printer\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6069DA7-6BA2-4499-A681-DCF96CEDE90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8599F50C-7F0A-4BE3-8BB0-322DE9F39285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="48810" windowHeight="18810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -874,7 +874,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/register_printer/excels/block.xlsx
+++ b/register_printer/excels/block.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\workspace\registerprinter\RegisterPrinter\register_printer\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8599F50C-7F0A-4BE3-8BB0-322DE9F39285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20DBBAF-7D3E-4A5C-88D7-4DAE7142782D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="48810" windowHeight="18810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -874,7 +874,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1076,8 +1076,8 @@
       <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="9">
         <v>1</v>
       </c>
@@ -1107,8 +1107,8 @@
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="9">
         <v>1</v>
       </c>
@@ -1138,8 +1138,8 @@
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="21">
         <v>1</v>
       </c>
@@ -1169,8 +1169,8 @@
       <c r="M12" s="15"/>
     </row>
     <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="21">
         <v>1</v>
       </c>
